--- a/data/trans_bre/CONS_DOL-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DOL-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>10,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>49,13%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 7,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 21,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 11,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 6,8</t>
+          <t>-0,45; 20,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,12; 315,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,94; 346,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,72; 122,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 217,72</t>
+          <t>-2,72; 125,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>239,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>37,56%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,91; 10,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,26; 3,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 9,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 5,19</t>
+          <t>-0,09; 16,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,78; 568,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,41; 20,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,67; 79,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,95; 160,7</t>
+          <t>-0,66; 91,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,52</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,65</t>
+          <t>14,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>572,02%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-10,0%</t>
+          <t>43,97%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,29</t>
+          <t>-0,28; 7,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 45,76</t>
+          <t>8,12; 20,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 9,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,43</t>
+          <t>2,99; 19,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 106,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,61; 133,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,79; 58,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,73; 77,73</t>
+          <t>9,62; 93,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,52</t>
+          <t>23,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>11,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>154,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>79,85%</t>
+          <t>50,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>125,47%</t>
+          <t>47,57%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 10,54</t>
+          <t>3,37; 10,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 21,45</t>
+          <t>11,76; 34,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 17,07</t>
+          <t>3,88; 14,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 7,06</t>
+          <t>3,28; 20,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 103,52</t>
+          <t>25,33; 112,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 129,51</t>
+          <t>45,74; 612,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 216,78</t>
+          <t>18,52; 97,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,62; 302,45</t>
+          <t>10,87; 99,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>15,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>52,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>44,03%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>178,27%</t>
+          <t>8,39%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 10,62</t>
+          <t>-0,9; 6,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 16,28</t>
+          <t>7,87; 21,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 9,08</t>
+          <t>3,43; 16,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 10,51</t>
+          <t>-7,66; 12,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 88,41</t>
+          <t>-6,24; 56,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 87,95</t>
+          <t>24,66; 81,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 64,44</t>
+          <t>13,34; 84,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>52,51; 420,35</t>
+          <t>-21,58; 50,61</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>10,01</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,87</t>
+          <t>50,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,04</t>
+          <t>16,82</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>211,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>65,76%</t>
+          <t>65,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>-4,85%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 8,14</t>
+          <t>5,56; 14,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 18,76</t>
+          <t>27,54; 68,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,54; 16,58</t>
+          <t>10,81; 23,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,69</t>
+          <t>-16,27; 10,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 46,09</t>
+          <t>43,05; 156,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,22; 90,26</t>
+          <t>111,13; 361,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,93; 105,05</t>
+          <t>37,14; 99,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,33; 111,09</t>
+          <t>-30,74; 30,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>26,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,24</t>
+          <t>19,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>28,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>52,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>74,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>56,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>63,84%</t>
+          <t>77,24%</t>
         </is>
       </c>
     </row>
@@ -1268,49 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 13,56</t>
+          <t>6,32; 16,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 20,6</t>
+          <t>18,92; 33,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,85; 19,94</t>
+          <t>13,33; 25,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,4</t>
+          <t>16,98; 38,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,93; 83,43</t>
+          <t>26,6; 91,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,51; 102,08</t>
+          <t>47,01; 111,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,78; 102,82</t>
+          <t>35,94; 82,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>31,06; 111,34</t>
+          <t>40,63; 135,25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>23,27</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,4</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>47,86%</t>
+          <t>65,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>111,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>48,08%</t>
+          <t>48,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>40,52%</t>
         </is>
       </c>
     </row>
@@ -1368,366 +1368,63 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,13; 17,76</t>
+          <t>5,46; 8,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 11,81</t>
+          <t>15,24; 38,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,28; 19,43</t>
+          <t>7,52; 12,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 5,37</t>
+          <t>7,59; 14,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,77; 85,75</t>
+          <t>45,32; 83,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 45,68</t>
+          <t>64,26; 221,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,62; 71,68</t>
+          <t>34,19; 62,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 45,25</t>
+          <t>24,94; 57,52</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>18,73</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>35,17</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>9,86</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>73,6%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-4,85%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>129,39%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>99,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>13,06; 23,89</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-14,45; 9,8</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>24,05; 53,14</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>6,49; 13,42</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>45,76; 103,15</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-28,13; 26,88</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>83,51; 216,62</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>54,91; 162,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>18,47</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>28,23</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>26,91</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>10,08</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>51,0%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>77,24%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>67,25%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>47,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>11,96; 24,68</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>18,2; 37,96</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>20,64; 32,05</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>5,97; 14,91</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>29,36; 73,57</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>40,39; 124,51</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>47,18; 88,3</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>24,78; 79,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>10,88</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>11,4</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>17,31</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>6,25</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>47,79%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>40,9%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>73,16%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>61,69%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>8,69; 13,34</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 15,11</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>14,49; 24,34</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>4,88; 7,55</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>36,69; 62,23</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>25,0; 58,5</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>57,6; 103,03</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>45,28; 79,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/CONS_DOL-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DOL-Edad-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 7,71</t>
+          <t>-0,2; 6,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 21,78</t>
+          <t>-1,72; 21,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 20,71</t>
+          <t>-0,64; 21,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 315,03</t>
+          <t>-10,76; 300,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 346,53</t>
+          <t>-15,9; 304,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 125,91</t>
+          <t>-3,16; 132,65</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>239,54%</t>
+          <t>158,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 10,85</t>
+          <t>1,87; 8,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 3,95</t>
+          <t>-18,62; 5,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 16,7</t>
+          <t>-0,26; 16,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,78; 568,67</t>
+          <t>28,77; 423,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,41; 20,71</t>
+          <t>-67,37; 28,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 91,76</t>
+          <t>-2,41; 90,76</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 7,91</t>
+          <t>-0,09; 7,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,12; 20,95</t>
+          <t>7,56; 20,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 19,95</t>
+          <t>2,64; 18,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 106,03</t>
+          <t>-2,68; 95,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,61; 133,44</t>
+          <t>32,07; 137,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 93,98</t>
+          <t>8,63; 93,88</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 10,89</t>
+          <t>0,06; 7,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,76; 34,56</t>
+          <t>11,57; 35,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 20,74</t>
+          <t>3,38; 20,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,33; 112,23</t>
+          <t>-0,38; 71,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,74; 612,97</t>
+          <t>43,63; 647,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 99,78</t>
+          <t>10,67; 96,82</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>42,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 6,85</t>
+          <t>1,51; 8,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 21,07</t>
+          <t>8,98; 21,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 12,23</t>
+          <t>-7,48; 12,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 56,66</t>
+          <t>9,97; 82,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,66; 81,73</t>
+          <t>27,22; 87,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 50,61</t>
+          <t>-21,87; 49,11</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,01</t>
+          <t>10,75</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,99%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,56; 14,11</t>
+          <t>6,76; 15,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,54; 68,35</t>
+          <t>27,62; 71,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 10,48</t>
+          <t>-15,14; 9,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,05; 156,04</t>
+          <t>50,73; 167,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>111,13; 361,14</t>
+          <t>114,53; 398,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,74; 30,1</t>
+          <t>-29,14; 23,95</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,22</t>
+          <t>11,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>52,73%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,32; 16,47</t>
+          <t>6,03; 16,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,92; 33,82</t>
+          <t>18,52; 33,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,98; 38,8</t>
+          <t>17,65; 38,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,6; 91,15</t>
+          <t>25,6; 86,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,01; 111,99</t>
+          <t>45,83; 115,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,63; 135,25</t>
+          <t>40,47; 132,12</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>65,03%</t>
+          <t>65,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,76</t>
+          <t>5,51; 8,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,24; 38,6</t>
+          <t>15,35; 43,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,59; 14,85</t>
+          <t>7,61; 15,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>45,32; 83,75</t>
+          <t>47,69; 84,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,26; 221,04</t>
+          <t>65,1; 255,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,94; 57,52</t>
+          <t>25,66; 58,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_DOL-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DOL-Edad-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>11,55</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10,52</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,99</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>3,29</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,95</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,99</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,52</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>93,08%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>49,13%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40,21%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>83,71%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>88,37%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>40,21%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>49,13%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,35; 21,7</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 21,61</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 11,87</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-0,2; 6,97</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 21,18</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 11,87</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 21,61</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-4,03; 299,34</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 132,65</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; 122,23</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-10,76; 300,56</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-15,9; 304,53</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-10,72; 122,23</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 132,65</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-1,39</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8,34</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,25</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,17</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,34</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-6,48%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>37,56%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21,8%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>158,11%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-23,39%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21,8%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>37,56%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-10,24; 8,04</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 16,3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 9,27</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>1,87; 8,89</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-18,62; 5,02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; 9,27</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 16,3</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-38,82; 49,33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 90,76</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-17,67; 79,27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>28,77; 423,72</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-67,37; 28,16</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-17,67; 79,27</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-2,41; 90,76</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>14,39</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10,87</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,76</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>14,28</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,87</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>78,18%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>43,97%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15,51%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>42,94%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>73,74%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>15,51%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>43,97%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>8,3; 20,52</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 18,87</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 9,21</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-0,09; 7,11</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,56; 20,99</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 9,21</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 18,87</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>37,63; 140,53</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 93,88</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-13,79; 58,52</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-2,68; 95,5</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>32,07; 137,9</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-13,79; 58,52</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>8,63; 93,88</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>13,13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11,9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>4,15</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>23,34</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,04</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,9</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>54,06%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>47,57%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>50,35%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>33,21%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>154,96%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>50,35%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>47,57%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,06; 18,56</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 20,87</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3,88; 14,9</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0,06; 7,64</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>11,57; 35,13</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,88; 14,9</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 20,87</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>25,64; 87,85</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10,67; 96,82</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18,52; 97,37</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-0,38; 71,44</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>43,63; 647,55</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>18,52; 97,37</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>10,67; 96,82</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>14,96</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,31</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>5,18</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>15,22</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10,31</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>50,98%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>44,03%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>42,8%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>52,2%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>44,03%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,39%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>8,97; 20,99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 12,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 16,85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>1,51; 8,73</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,98; 21,38</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,43; 16,85</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,48; 12,02</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>27,09; 82,94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-21,87; 49,11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,34; 84,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>9,97; 82,93</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>27,22; 87,28</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>13,34; 84,7</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-21,87; 49,11</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>30,57</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16,82</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>10,75</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>50,54</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>16,82</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>132,6%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-4,85%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>65,1%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>97,71%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>211,08%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>65,1%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-4,85%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>23,5; 36,61</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-15,14; 9,57</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10,81; 23,0</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>6,76; 15,05</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>27,62; 71,46</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>10,81; 23,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-15,14; 9,57</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>85,69; 191,79</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-29,14; 23,95</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>37,14; 99,19</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>50,73; 167,22</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>114,53; 398,57</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>37,14; 99,19</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-29,14; 23,95</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>25,95</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>28,23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19,57</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>11,04</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>26,32</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>19,57</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>28,23</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>73,14%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>77,24%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>56,86%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>52,17%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>74,71%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>56,86%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>77,24%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>18,25; 33,55</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17,65; 38,78</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 25,74</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>6,03; 16,21</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>18,52; 33,99</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>13,33; 25,74</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>17,65; 38,78</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>44,45; 112,43</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>40,47; 132,12</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>35,94; 82,65</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>25,6; 86,47</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>45,83; 115,87</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>35,94; 82,65</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>40,47; 132,12</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>15,82</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11,34</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9,98</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>23,27</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>9,98</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>11,34</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>68,36%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>40,52%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>48,12%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>65,85%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>111,99%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>48,12%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>40,52%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>12,97; 18,45</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 15,11</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7,52; 12,24</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>5,51; 8,64</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>15,35; 43,32</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>7,52; 12,24</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>7,61; 15,11</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>52,57; 86,08</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>25,66; 58,59</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>34,19; 62,26</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>47,69; 84,63</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>65,1; 255,5</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>34,19; 62,26</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>25,66; 58,59</t>
         </is>
       </c>
     </row>
